--- a/predictions/multiple/LinearRegression/Incidencia.xlsx
+++ b/predictions/multiple/LinearRegression/Incidencia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -467,7 +472,10 @@
       <c r="C2" t="n">
         <v>0.6656519742986331</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>1.150949170179709</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -485,7 +493,10 @@
       <c r="C3" t="n">
         <v>0.7627572342037657</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>3.277320905761562</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -503,7 +514,10 @@
       <c r="C4" t="n">
         <v>0.7270259430779206</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>1.818532645477756</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -521,7 +535,10 @@
       <c r="C5" t="n">
         <v>0.9049329284240437</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="n">
+        <v>10.34970595991643</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -539,7 +556,10 @@
       <c r="C6" t="n">
         <v>-0.01546323570427477</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="n">
+        <v>8.217472415074973</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -557,7 +577,10 @@
       <c r="C7" t="n">
         <v>0.8726131963143264</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="n">
+        <v>12.90282715025942</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -575,7 +598,10 @@
       <c r="C8" t="n">
         <v>0.847664365461714</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="n">
+        <v>9.86198879267223</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -593,7 +619,10 @@
       <c r="C9" t="n">
         <v>0.7860402346363914</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="n">
+        <v>3.521111972972703</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -611,7 +640,10 @@
       <c r="C10" t="n">
         <v>0.939751875132551</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="n">
+        <v>3.885608224300233</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>

--- a/predictions/multiple/LinearRegression/Incidencia.xlsx
+++ b/predictions/multiple/LinearRegression/Incidencia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -480,6 +485,16 @@
           <t>multiple</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       LinearRegression())]),
+                                            param_grid={'model__fit_intercept': [True,
+                                                                                 False]},
+                                            scoring='neg_mean_squared_error'))</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -501,6 +516,16 @@
           <t>multiple</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       LinearRegression())]),
+                                            param_grid={'model__fit_intercept': [True,
+                                                                                 False]},
+                                            scoring='neg_mean_squared_error'))</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -522,6 +547,16 @@
           <t>multiple</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       LinearRegression())]),
+                                            param_grid={'model__fit_intercept': [True,
+                                                                                 False]},
+                                            scoring='neg_mean_squared_error'))</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -543,6 +578,16 @@
           <t>multiple</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       LinearRegression())]),
+                                            param_grid={'model__fit_intercept': [True,
+                                                                                 False]},
+                                            scoring='neg_mean_squared_error'))</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -564,6 +609,16 @@
           <t>multiple</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       LinearRegression())]),
+                                            param_grid={'model__fit_intercept': [True,
+                                                                                 False]},
+                                            scoring='neg_mean_squared_error'))</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -585,6 +640,16 @@
           <t>multiple</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       LinearRegression())]),
+                                            param_grid={'model__fit_intercept': [True,
+                                                                                 False]},
+                                            scoring='neg_mean_squared_error'))</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -606,6 +671,16 @@
           <t>multiple</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       LinearRegression())]),
+                                            param_grid={'model__fit_intercept': [True,
+                                                                                 False]},
+                                            scoring='neg_mean_squared_error'))</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -627,6 +702,16 @@
           <t>multiple</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       LinearRegression())]),
+                                            param_grid={'model__fit_intercept': [True,
+                                                                                 False]},
+                                            scoring='neg_mean_squared_error'))</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -646,6 +731,16 @@
       <c r="E10" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       LinearRegression())]),
+                                            param_grid={'model__fit_intercept': [True,
+                                                                                 False]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>

--- a/predictions/multiple/LinearRegression/Incidencia.xlsx
+++ b/predictions/multiple/LinearRegression/Incidencia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Modelo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -495,6 +505,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -526,6 +542,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G3" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -557,6 +579,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G4" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -588,6 +616,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G5" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -619,6 +653,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G6" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -650,6 +690,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G7" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -681,6 +727,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G8" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -712,6 +764,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G9" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -743,6 +801,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G10" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.985</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/predictions/multiple/LinearRegression/Incidencia.xlsx
+++ b/predictions/multiple/LinearRegression/Incidencia.xlsx
@@ -502,14 +502,14 @@
                                                                        LinearRegression())]),
                                             param_grid={'model__fit_intercept': [True,
                                                                                  False]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H2" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="3">
@@ -539,14 +539,14 @@
                                                                        LinearRegression())]),
                                             param_grid={'model__fit_intercept': [True,
                                                                                  False]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H3" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="4">
@@ -576,14 +576,14 @@
                                                                        LinearRegression())]),
                                             param_grid={'model__fit_intercept': [True,
                                                                                  False]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H4" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="5">
@@ -613,14 +613,14 @@
                                                                        LinearRegression())]),
                                             param_grid={'model__fit_intercept': [True,
                                                                                  False]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H5" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="6">
@@ -650,14 +650,14 @@
                                                                        LinearRegression())]),
                                             param_grid={'model__fit_intercept': [True,
                                                                                  False]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H6" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="7">
@@ -687,14 +687,14 @@
                                                                        LinearRegression())]),
                                             param_grid={'model__fit_intercept': [True,
                                                                                  False]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H7" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="8">
@@ -724,14 +724,14 @@
                                                                        LinearRegression())]),
                                             param_grid={'model__fit_intercept': [True,
                                                                                  False]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H8" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="9">
@@ -761,14 +761,14 @@
                                                                        LinearRegression())]),
                                             param_grid={'model__fit_intercept': [True,
                                                                                  False]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H9" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="10">
@@ -798,14 +798,14 @@
                                                                        LinearRegression())]),
                                             param_grid={'model__fit_intercept': [True,
                                                                                  False]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H10" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/multiple/LinearRegression/Incidencia.xlsx
+++ b/predictions/multiple/LinearRegression/Incidencia.xlsx
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H2" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="3">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H3" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="4">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H4" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="5">
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H5" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="6">
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H6" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="7">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H7" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="8">
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H8" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="9">
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H9" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="10">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H10" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
   </sheetData>
